--- a/backend/exports/narcan_forms.xlsx
+++ b/backend/exports/narcan_forms.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -433,18 +433,78 @@
         <v xml:space="preserve">9453652569 </v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <v>Mon-Friday 10-5pm</v>
       </c>
       <c r="F3" t="str">
-        <v>May 18, 2024, 06:08 PM ET</v>
+        <v>May 19, 2024, 10:52 PM ET</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Prevent Overdose Inc</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve">University of Florida </v>
+      </c>
+      <c r="C4" t="str">
+        <v xml:space="preserve">9453652569 </v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Mon-Friday 10-5pm</v>
+      </c>
+      <c r="F4" t="str">
+        <v>May 19, 2024, 10:53 PM ET</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Prevent Overdose Inc</v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve">University of Florida </v>
+      </c>
+      <c r="C5" t="str">
+        <v xml:space="preserve">9453652569 </v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Friday</v>
+      </c>
+      <c r="F5" t="str">
+        <v>May 19, 2024, 10:53 PM ET</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Prevent Overdose Inc</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">University of Florida </v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve">9453652569 </v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Mon-Friday</v>
+      </c>
+      <c r="F6" t="str">
+        <v>May 19, 2024, 10:54 PM ET</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/exports/narcan_forms.xlsx
+++ b/backend/exports/narcan_forms.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="2">
@@ -422,89 +422,9 @@
         <v>Requested On</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Prevent Overdose Inc</v>
-      </c>
-      <c r="B3" t="str">
-        <v xml:space="preserve">University of Florida </v>
-      </c>
-      <c r="C3" t="str">
-        <v xml:space="preserve">9453652569 </v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Mon-Friday 10-5pm</v>
-      </c>
-      <c r="F3" t="str">
-        <v>May 19, 2024, 10:52 PM ET</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>Prevent Overdose Inc</v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve">University of Florida </v>
-      </c>
-      <c r="C4" t="str">
-        <v xml:space="preserve">9453652569 </v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Mon-Friday 10-5pm</v>
-      </c>
-      <c r="F4" t="str">
-        <v>May 19, 2024, 10:53 PM ET</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Prevent Overdose Inc</v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve">University of Florida </v>
-      </c>
-      <c r="C5" t="str">
-        <v xml:space="preserve">9453652569 </v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Friday</v>
-      </c>
-      <c r="F5" t="str">
-        <v>May 19, 2024, 10:53 PM ET</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Prevent Overdose Inc</v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve">University of Florida </v>
-      </c>
-      <c r="C6" t="str">
-        <v xml:space="preserve">9453652569 </v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Mon-Friday</v>
-      </c>
-      <c r="F6" t="str">
-        <v>May 19, 2024, 10:54 PM ET</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>